--- a/src/test/resources/datatest/Customers.xlsx
+++ b/src/test/resources/datatest/Customers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Java\Project\ProjectTestCRM\src\test\resources\datatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623B3C84-2C98-403B-BFE6-41240FE42CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281AB13E-3DF6-452F-A00E-85172AC025BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1560" windowWidth="16335" windowHeight="13485" xr2:uid="{32A7B24F-A0F0-4B77-AE8F-5D2BE1B7131E}"/>
+    <workbookView xWindow="13350" yWindow="4620" windowWidth="13695" windowHeight="10020" xr2:uid="{32A7B24F-A0F0-4B77-AE8F-5D2BE1B7131E}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="32">
   <si>
     <t>COMPANY</t>
   </si>
   <si>
-    <t xml:space="preserve">VAT </t>
-  </si>
-  <si>
     <t>PHONE</t>
   </si>
   <si>
@@ -106,6 +103,33 @@
   </si>
   <si>
     <t>TPO 04</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>VIP, Silver</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>70000</t>
+  </si>
+  <si>
+    <t>TPO 05</t>
+  </si>
+  <si>
+    <t>TPO 06</t>
+  </si>
+  <si>
+    <t>TPO 07</t>
+  </si>
+  <si>
+    <t>TPO 08</t>
+  </si>
+  <si>
+    <t>VAT</t>
   </si>
 </sst>
 </file>
@@ -478,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A0F6A5-4155-432D-8752-C970A826438C}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:P1048576"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,153 +528,341 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
         <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
       <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
         <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
       <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
         <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
       <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
         <v>17</v>
       </c>
-      <c r="L5" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/datatest/Customers.xlsx
+++ b/src/test/resources/datatest/Customers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Java\Project\ProjectTestCRM\src\test\resources\datatest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\Projects\ProjectTestCRM\src\test\resources\datatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281AB13E-3DF6-452F-A00E-85172AC025BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D59149-4CFB-4243-A936-220EB50936B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13350" yWindow="4620" windowWidth="13695" windowHeight="10020" xr2:uid="{32A7B24F-A0F0-4B77-AE8F-5D2BE1B7131E}"/>
+    <workbookView xWindow="7170" yWindow="4065" windowWidth="21600" windowHeight="11835" xr2:uid="{32A7B24F-A0F0-4B77-AE8F-5D2BE1B7131E}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="41">
   <si>
     <t>COMPANY</t>
   </si>
@@ -130,6 +130,33 @@
   </si>
   <si>
     <t>VAT</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>Task1</t>
+  </si>
+  <si>
+    <t>Task2</t>
+  </si>
+  <si>
+    <t>Task3</t>
+  </si>
+  <si>
+    <t>Task4</t>
+  </si>
+  <si>
+    <t>Task5</t>
+  </si>
+  <si>
+    <t>Task6</t>
+  </si>
+  <si>
+    <t>Task7</t>
+  </si>
+  <si>
+    <t>Task8</t>
   </si>
 </sst>
 </file>
@@ -502,28 +529,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A0F6A5-4155-432D-8752-C970A826438C}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="13" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,8 +577,11 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -598,8 +618,11 @@
       <c r="L2" t="s">
         <v>17</v>
       </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -636,8 +659,11 @@
       <c r="L3" t="s">
         <v>17</v>
       </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -674,8 +700,11 @@
       <c r="L4" t="s">
         <v>17</v>
       </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -712,8 +741,11 @@
       <c r="L5" t="s">
         <v>17</v>
       </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -750,8 +782,11 @@
       <c r="L6" t="s">
         <v>17</v>
       </c>
+      <c r="M6" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -788,8 +823,11 @@
       <c r="L7" t="s">
         <v>17</v>
       </c>
+      <c r="M7" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -826,8 +864,11 @@
       <c r="L8" t="s">
         <v>17</v>
       </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -863,6 +904,9 @@
       </c>
       <c r="L9" t="s">
         <v>17</v>
+      </c>
+      <c r="M9" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
